--- a/001. 문서/2017_01_19/1달Project계획서_AR_MASTER_01.23.001.xlsx
+++ b/001. 문서/2017_01_19/1달Project계획서_AR_MASTER_01.23.001.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bitcamp\Desktop\ARproject\001. 문서\2017_01_19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="9285"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,17 +187,21 @@
   </si>
   <si>
     <t>프로젝트진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,16 +263,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +404,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,20 +580,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,28 +602,28 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -617,35 +631,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -653,7 +667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -661,7 +675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -669,7 +683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -677,21 +691,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -714,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>42758</v>
       </c>
@@ -737,161 +751,172 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="4">
+    <row r="15" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
         <v>42765</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>42766</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>42767</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>42768</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>42769</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>42770</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>42771</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="62.25" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
         <v>42772</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>42773</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>42774</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>42775</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>42776</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>42777</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>42778</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="63" customHeight="1">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
         <v>42779</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>42780</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>42781</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>42782</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>42783</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>42784</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>42785</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="64.5" customHeight="1">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>42786</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>42787</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" ht="71.25" customHeight="1">
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -905,17 +930,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,12 +948,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
